--- a/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3413352504215622</v>
+        <v>0.3906567869973583</v>
       </c>
       <c r="C11" t="n">
-        <v>1.208953076620531</v>
+        <v>1.38326410155478</v>
       </c>
       <c r="D11" t="n">
-        <v>1.992965640781445</v>
+        <v>2.530266344046491</v>
       </c>
     </row>
     <row r="12">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.864717825280562e-06</v>
+        <v>0.4896462858775478</v>
       </c>
       <c r="C13" t="n">
-        <v>1.788659455319716e-05</v>
+        <v>1.789657798128848</v>
       </c>
       <c r="D13" t="n">
-        <v>2.716423797077429e-05</v>
+        <v>2.639798734489093</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3906567869973583</v>
+        <v>0.3785336674405344</v>
       </c>
       <c r="C11" t="n">
-        <v>1.38326410155478</v>
+        <v>1.340857509694057</v>
       </c>
       <c r="D11" t="n">
-        <v>2.530266344046491</v>
+        <v>2.397611608901201</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01923743736922083</v>
+        <v>0.01241872184046703</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0721252626842885</v>
+        <v>0.04683454441868198</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1009659347975457</v>
+        <v>0.06061010048578478</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4896462858775478</v>
+        <v>0.5749000868837024</v>
       </c>
       <c r="C13" t="n">
-        <v>1.789657798128848</v>
+        <v>2.162873393346867</v>
       </c>
       <c r="D13" t="n">
-        <v>2.639798734489093</v>
+        <v>2.609106126940768</v>
       </c>
     </row>
   </sheetData>
